--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Cthrc1-Fzd6.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Cthrc1-Fzd6.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.00921384564797</v>
+        <v>5.507882</v>
       </c>
       <c r="H2">
-        <v>3.00921384564797</v>
+        <v>16.523646</v>
       </c>
       <c r="I2">
-        <v>0.01983093299603421</v>
+        <v>0.03518866199235487</v>
       </c>
       <c r="J2">
-        <v>0.01983093299603421</v>
+        <v>0.03518866199235487</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>20.410013692638</v>
+        <v>20.545366</v>
       </c>
       <c r="N2">
-        <v>20.410013692638</v>
+        <v>61.636098</v>
       </c>
       <c r="O2">
-        <v>0.8981037100610688</v>
+        <v>0.8965950288338865</v>
       </c>
       <c r="P2">
-        <v>0.8981037100610688</v>
+        <v>0.8965950288338865</v>
       </c>
       <c r="Q2">
-        <v>61.41809579375091</v>
+        <v>113.161451574812</v>
       </c>
       <c r="R2">
-        <v>61.41809579375091</v>
+        <v>1018.453064173308</v>
       </c>
       <c r="S2">
-        <v>0.01781023449771079</v>
+        <v>0.0315499794136613</v>
       </c>
       <c r="T2">
-        <v>0.01781023449771079</v>
+        <v>0.0315499794136613</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.00921384564797</v>
+        <v>5.507882</v>
       </c>
       <c r="H3">
-        <v>3.00921384564797</v>
+        <v>16.523646</v>
       </c>
       <c r="I3">
-        <v>0.01983093299603421</v>
+        <v>0.03518866199235487</v>
       </c>
       <c r="J3">
-        <v>0.01983093299603421</v>
+        <v>0.03518866199235487</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.13800170000141</v>
+        <v>2.154739666666666</v>
       </c>
       <c r="N3">
-        <v>2.13800170000141</v>
+        <v>6.464219</v>
       </c>
       <c r="O3">
-        <v>0.09407868548274155</v>
+        <v>0.09403234157836461</v>
       </c>
       <c r="P3">
-        <v>0.09407868548274155</v>
+        <v>0.09403234157836463</v>
       </c>
       <c r="Q3">
-        <v>6.433704317663141</v>
+        <v>11.86805182471933</v>
       </c>
       <c r="R3">
-        <v>6.433704317663141</v>
+        <v>106.812466422474</v>
       </c>
       <c r="S3">
-        <v>0.001865668108163224</v>
+        <v>0.003308872284150729</v>
       </c>
       <c r="T3">
-        <v>0.001865668108163224</v>
+        <v>0.003308872284150729</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.00921384564797</v>
+        <v>5.507882</v>
       </c>
       <c r="H4">
-        <v>3.00921384564797</v>
+        <v>16.523646</v>
       </c>
       <c r="I4">
-        <v>0.01983093299603421</v>
+        <v>0.03518866199235487</v>
       </c>
       <c r="J4">
-        <v>0.01983093299603421</v>
+        <v>0.03518866199235487</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.177660343907952</v>
+        <v>0.2147726666666667</v>
       </c>
       <c r="N4">
-        <v>0.177660343907952</v>
+        <v>0.6443180000000001</v>
       </c>
       <c r="O4">
-        <v>0.007817604456189576</v>
+        <v>0.009372629587748921</v>
       </c>
       <c r="P4">
-        <v>0.007817604456189576</v>
+        <v>0.009372629587748921</v>
       </c>
       <c r="Q4">
-        <v>0.5346179667103891</v>
+        <v>1.182942504825333</v>
       </c>
       <c r="R4">
-        <v>0.5346179667103891</v>
+        <v>10.646482543428</v>
       </c>
       <c r="S4">
-        <v>0.000155030390160194</v>
+        <v>0.0003298102945428411</v>
       </c>
       <c r="T4">
-        <v>0.000155030390160194</v>
+        <v>0.0003298102945428411</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>147.907014682329</v>
+        <v>149.9875183333334</v>
       </c>
       <c r="H5">
-        <v>147.907014682329</v>
+        <v>449.9625550000001</v>
       </c>
       <c r="I5">
-        <v>0.9747177330221033</v>
+        <v>0.9582376829612175</v>
       </c>
       <c r="J5">
-        <v>0.9747177330221033</v>
+        <v>0.9582376829612176</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.410013692638</v>
+        <v>20.545366</v>
       </c>
       <c r="N5">
-        <v>20.410013692638</v>
+        <v>61.636098</v>
       </c>
       <c r="O5">
-        <v>0.8981037100610688</v>
+        <v>0.8965950288338865</v>
       </c>
       <c r="P5">
-        <v>0.8981037100610688</v>
+        <v>0.8965950288338865</v>
       </c>
       <c r="Q5">
-        <v>3018.784194903544</v>
+        <v>3081.548459590044</v>
       </c>
       <c r="R5">
-        <v>3018.784194903544</v>
+        <v>27733.9361363104</v>
       </c>
       <c r="S5">
-        <v>0.8753976122894653</v>
+        <v>0.8591511429843294</v>
       </c>
       <c r="T5">
-        <v>0.8753976122894653</v>
+        <v>0.8591511429843295</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>147.907014682329</v>
+        <v>149.9875183333334</v>
       </c>
       <c r="H6">
-        <v>147.907014682329</v>
+        <v>449.9625550000001</v>
       </c>
       <c r="I6">
-        <v>0.9747177330221033</v>
+        <v>0.9582376829612175</v>
       </c>
       <c r="J6">
-        <v>0.9747177330221033</v>
+        <v>0.9582376829612176</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.13800170000141</v>
+        <v>2.154739666666666</v>
       </c>
       <c r="N6">
-        <v>2.13800170000141</v>
+        <v>6.464219</v>
       </c>
       <c r="O6">
-        <v>0.09407868548274155</v>
+        <v>0.09403234157836461</v>
       </c>
       <c r="P6">
-        <v>0.09407868548274155</v>
+        <v>0.09403234157836463</v>
       </c>
       <c r="Q6">
-        <v>316.2254488329529</v>
+        <v>323.1840552577273</v>
       </c>
       <c r="R6">
-        <v>316.2254488329529</v>
+        <v>2908.656497319545</v>
       </c>
       <c r="S6">
-        <v>0.0917001630394373</v>
+        <v>0.09010533311746986</v>
       </c>
       <c r="T6">
-        <v>0.0917001630394373</v>
+        <v>0.09010533311746988</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>147.907014682329</v>
+        <v>149.9875183333334</v>
       </c>
       <c r="H7">
-        <v>147.907014682329</v>
+        <v>449.9625550000001</v>
       </c>
       <c r="I7">
-        <v>0.9747177330221033</v>
+        <v>0.9582376829612175</v>
       </c>
       <c r="J7">
-        <v>0.9747177330221033</v>
+        <v>0.9582376829612176</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.177660343907952</v>
+        <v>0.2147726666666667</v>
       </c>
       <c r="N7">
-        <v>0.177660343907952</v>
+        <v>0.6443180000000001</v>
       </c>
       <c r="O7">
-        <v>0.007817604456189576</v>
+        <v>0.009372629587748921</v>
       </c>
       <c r="P7">
-        <v>0.007817604456189576</v>
+        <v>0.009372629587748921</v>
       </c>
       <c r="Q7">
-        <v>26.27721109486107</v>
+        <v>32.21321927916556</v>
       </c>
       <c r="R7">
-        <v>26.27721109486107</v>
+        <v>289.9189735124901</v>
       </c>
       <c r="S7">
-        <v>0.007619957693200596</v>
+        <v>0.008981206859418276</v>
       </c>
       <c r="T7">
-        <v>0.007619957693200596</v>
+        <v>0.008981206859418278</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.827204130978241</v>
+        <v>1.028937</v>
       </c>
       <c r="H8">
-        <v>0.827204130978241</v>
+        <v>3.086811</v>
       </c>
       <c r="I8">
-        <v>0.005451333981862596</v>
+        <v>0.006573655046427582</v>
       </c>
       <c r="J8">
-        <v>0.005451333981862596</v>
+        <v>0.006573655046427582</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>20.410013692638</v>
+        <v>20.545366</v>
       </c>
       <c r="N8">
-        <v>20.410013692638</v>
+        <v>61.636098</v>
       </c>
       <c r="O8">
-        <v>0.8981037100610688</v>
+        <v>0.8965950288338865</v>
       </c>
       <c r="P8">
-        <v>0.8981037100610688</v>
+        <v>0.8965950288338865</v>
       </c>
       <c r="Q8">
-        <v>16.88324763987261</v>
+        <v>21.139887255942</v>
       </c>
       <c r="R8">
-        <v>16.88324763987261</v>
+        <v>190.258985303478</v>
       </c>
       <c r="S8">
-        <v>0.004895863273892777</v>
+        <v>0.005893906435895761</v>
       </c>
       <c r="T8">
-        <v>0.004895863273892777</v>
+        <v>0.005893906435895761</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.827204130978241</v>
+        <v>1.028937</v>
       </c>
       <c r="H9">
-        <v>0.827204130978241</v>
+        <v>3.086811</v>
       </c>
       <c r="I9">
-        <v>0.005451333981862596</v>
+        <v>0.006573655046427582</v>
       </c>
       <c r="J9">
-        <v>0.005451333981862596</v>
+        <v>0.006573655046427582</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.13800170000141</v>
+        <v>2.154739666666666</v>
       </c>
       <c r="N9">
-        <v>2.13800170000141</v>
+        <v>6.464219</v>
       </c>
       <c r="O9">
-        <v>0.09407868548274155</v>
+        <v>0.09403234157836461</v>
       </c>
       <c r="P9">
-        <v>0.09407868548274155</v>
+        <v>0.09403234157836463</v>
       </c>
       <c r="Q9">
-        <v>1.768563838279668</v>
+        <v>2.217091368401</v>
       </c>
       <c r="R9">
-        <v>1.768563838279668</v>
+        <v>19.953822315609</v>
       </c>
       <c r="S9">
-        <v>0.0005128543351410323</v>
+        <v>0.0006181361767440187</v>
       </c>
       <c r="T9">
-        <v>0.0005128543351410323</v>
+        <v>0.0006181361767440188</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.827204130978241</v>
+        <v>1.028937</v>
       </c>
       <c r="H10">
-        <v>0.827204130978241</v>
+        <v>3.086811</v>
       </c>
       <c r="I10">
-        <v>0.005451333981862596</v>
+        <v>0.006573655046427582</v>
       </c>
       <c r="J10">
-        <v>0.005451333981862596</v>
+        <v>0.006573655046427582</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.177660343907952</v>
+        <v>0.2147726666666667</v>
       </c>
       <c r="N10">
-        <v>0.177660343907952</v>
+        <v>0.6443180000000001</v>
       </c>
       <c r="O10">
-        <v>0.007817604456189576</v>
+        <v>0.009372629587748921</v>
       </c>
       <c r="P10">
-        <v>0.007817604456189576</v>
+        <v>0.009372629587748921</v>
       </c>
       <c r="Q10">
-        <v>0.1469613703916728</v>
+        <v>0.220987543322</v>
       </c>
       <c r="R10">
-        <v>0.1469613703916728</v>
+        <v>1.988887889898</v>
       </c>
       <c r="S10">
-        <v>4.26163728287867E-05</v>
+        <v>6.161243378780217E-05</v>
       </c>
       <c r="T10">
-        <v>4.26163728287867E-05</v>
+        <v>6.161243378780217E-05</v>
       </c>
     </row>
   </sheetData>
